--- a/JeanPiaget/Majo - 2018-2019/Entregas/Parcial4_TMIs/Sexto/TMI-Calificaciones6010_Final.xlsx
+++ b/JeanPiaget/Majo - 2018-2019/Entregas/Parcial4_TMIs/Sexto/TMI-Calificaciones6010_Final.xlsx
@@ -1,15 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\afchavez19\JeanPiaget\Majo - 2018-2019\Entregas\Parcial4_TMIs\Sexto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="23715" windowHeight="10050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="4 BIM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -201,7 +211,6 @@
   </si>
   <si>
     <t xml:space="preserve">Notas importantes:
-Las casillas marcadas con color verde señalan las instancias en que se les subió puntos sobre la calificación original por diversos motivos. Si alguien considera que merece que se le suban puntos dada su participación en la Feria de las Ciencias, por favor háganmelo saber vía Correo Electrónico.
 </t>
   </si>
 </sst>
@@ -366,7 +375,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,12 +450,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -794,277 +797,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="7" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="6" borderId="14" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="6" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="12" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1078,6 +815,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1094,6 +832,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1102,6 +843,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1123,9 +866,275 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="12" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="7" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="6" borderId="14" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="6" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1137,6 +1146,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1294,39 +1306,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1361,7 +1373,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1405,166 +1417,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -1572,1807 +1560,1819 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="71" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="71" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="71" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.42578125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="7.85546875" style="2" customWidth="1"/>
-    <col min="20" max="22" width="11.42578125" style="2"/>
-    <col min="23" max="23" width="12.7109375" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="3.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="39" style="9" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="121" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="121" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="121" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" style="9" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="9" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="9" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="9" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="7.42578125" style="9" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="9" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" style="9" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" style="9" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="9" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" style="9" customWidth="1"/>
+    <col min="19" max="19" width="7.85546875" style="9" customWidth="1"/>
+    <col min="20" max="22" width="11.42578125" style="9"/>
+    <col min="23" max="23" width="12.7109375" style="9" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="92"/>
-      <c r="B1" s="92"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="96" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
     </row>
     <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
     </row>
     <row r="3" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="105" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="109" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
     </row>
-    <row r="5" spans="1:24" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="113" t="s">
+    <row r="5" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="116" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="118"/>
-      <c r="U5" s="118"/>
-      <c r="V5" s="118"/>
-      <c r="W5" s="119" t="s">
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="88" t="s">
+      <c r="D6" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="90" t="s">
+      <c r="F6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="76" t="s">
+      <c r="G6" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="77" t="s">
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="78"/>
-      <c r="P6" s="77" t="s">
+      <c r="O6" s="39"/>
+      <c r="P6" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="77" t="s">
+      <c r="Q6" s="39"/>
+      <c r="R6" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="78"/>
-      <c r="T6" s="79" t="s">
+      <c r="S6" s="39"/>
+      <c r="T6" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="U6" s="79"/>
-      <c r="V6" s="80" t="s">
+      <c r="U6" s="40"/>
+      <c r="V6" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="W6" s="120"/>
+      <c r="W6" s="42"/>
     </row>
-    <row r="7" spans="1:24" s="13" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="83"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="4" t="s">
+    <row r="7" spans="1:24" s="58" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="54">
         <v>0.15</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="R7" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="S7" s="10">
+      <c r="S7" s="54">
         <v>0.25</v>
       </c>
-      <c r="T7" s="11" t="s">
+      <c r="T7" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="U7" s="12">
+      <c r="U7" s="56">
         <v>0.5</v>
       </c>
-      <c r="V7" s="81"/>
-      <c r="W7" s="120"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="42"/>
     </row>
     <row r="8" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <v>1</v>
-      </c>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="59">
+        <v>1</v>
+      </c>
+      <c r="B8" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17">
+      <c r="C8" s="61"/>
+      <c r="D8" s="62">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="62">
         <v>9.1</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="63">
         <v>9.6999999999999993</v>
       </c>
-      <c r="G8" s="19">
-        <v>1</v>
-      </c>
-      <c r="H8" s="20" t="s">
+      <c r="G8" s="64">
+        <v>1</v>
+      </c>
+      <c r="H8" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="21">
-        <v>1</v>
-      </c>
-      <c r="J8" s="21">
-        <v>1</v>
-      </c>
-      <c r="K8" s="21">
-        <v>1</v>
-      </c>
-      <c r="L8" s="21">
-        <v>1</v>
-      </c>
-      <c r="M8" s="22">
+      <c r="I8" s="66">
+        <v>1</v>
+      </c>
+      <c r="J8" s="66">
+        <v>1</v>
+      </c>
+      <c r="K8" s="66">
+        <v>1</v>
+      </c>
+      <c r="L8" s="66">
+        <v>1</v>
+      </c>
+      <c r="M8" s="67">
         <v>0</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8" s="64">
         <v>9</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="68">
         <f>N8*0.1</f>
         <v>0.9</v>
       </c>
-      <c r="P8" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="23">
+      <c r="P8" s="64">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="68">
         <f>P8*0.15</f>
         <v>1.5</v>
       </c>
-      <c r="R8" s="19">
-        <v>10</v>
-      </c>
-      <c r="S8" s="23">
+      <c r="R8" s="64">
+        <v>10</v>
+      </c>
+      <c r="S8" s="68">
         <f>R8*0.25</f>
         <v>2.5</v>
       </c>
-      <c r="T8" s="24">
+      <c r="T8" s="69">
         <v>9.5</v>
       </c>
-      <c r="U8" s="23">
+      <c r="U8" s="68">
         <f>T8*0.5</f>
         <v>4.75</v>
       </c>
-      <c r="V8" s="25">
+      <c r="V8" s="70">
         <f>SUM(Q8,S8,U8,O8)</f>
         <v>9.65</v>
       </c>
-      <c r="W8" s="26">
+      <c r="W8" s="71">
         <f>AVERAGE(D8,E8,F8,V8)</f>
         <v>9.4375</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
+      <c r="A9" s="72">
         <v>2</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29">
-        <v>10</v>
-      </c>
-      <c r="E9" s="29">
+      <c r="C9" s="73"/>
+      <c r="D9" s="74">
+        <v>10</v>
+      </c>
+      <c r="E9" s="74">
         <v>9</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="63">
         <v>8.9</v>
       </c>
-      <c r="G9" s="30">
-        <v>1</v>
-      </c>
-      <c r="H9" s="31">
-        <v>1</v>
-      </c>
-      <c r="I9" s="32">
+      <c r="G9" s="75">
+        <v>1</v>
+      </c>
+      <c r="H9" s="76">
+        <v>1</v>
+      </c>
+      <c r="I9" s="77">
         <v>0</v>
       </c>
-      <c r="J9" s="33">
-        <v>1</v>
-      </c>
-      <c r="K9" s="21">
-        <v>1</v>
-      </c>
-      <c r="L9" s="21">
-        <v>1</v>
-      </c>
-      <c r="M9" s="34">
-        <v>1</v>
-      </c>
-      <c r="N9" s="30">
-        <v>10</v>
-      </c>
-      <c r="O9" s="23">
+      <c r="J9" s="78">
+        <v>1</v>
+      </c>
+      <c r="K9" s="66">
+        <v>1</v>
+      </c>
+      <c r="L9" s="66">
+        <v>1</v>
+      </c>
+      <c r="M9" s="79">
+        <v>1</v>
+      </c>
+      <c r="N9" s="75">
+        <v>10</v>
+      </c>
+      <c r="O9" s="68">
         <f t="shared" ref="O9:O27" si="0">N9*0.1</f>
         <v>1</v>
       </c>
-      <c r="P9" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="23">
+      <c r="P9" s="64">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="68">
         <f t="shared" ref="Q9:Q27" si="1">P9*0.15</f>
         <v>1.5</v>
       </c>
-      <c r="R9" s="30">
-        <v>10</v>
-      </c>
-      <c r="S9" s="23">
+      <c r="R9" s="75">
+        <v>10</v>
+      </c>
+      <c r="S9" s="68">
         <f t="shared" ref="S9:S27" si="2">R9*0.25</f>
         <v>2.5</v>
       </c>
-      <c r="T9" s="35">
+      <c r="T9" s="80">
         <v>9</v>
       </c>
-      <c r="U9" s="23">
+      <c r="U9" s="68">
         <f t="shared" ref="U9:U27" si="3">T9*0.5</f>
         <v>4.5</v>
       </c>
-      <c r="V9" s="36">
-        <v>10</v>
-      </c>
-      <c r="W9" s="26">
+      <c r="V9" s="81">
+        <v>10</v>
+      </c>
+      <c r="W9" s="71">
         <f t="shared" ref="W9:W27" si="4">AVERAGE(D9,E9,F9,V9)</f>
         <v>9.4749999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
+      <c r="A10" s="72">
         <v>3</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39">
-        <v>10</v>
-      </c>
-      <c r="E10" s="39">
-        <v>10</v>
-      </c>
-      <c r="F10" s="40">
-        <v>10</v>
-      </c>
-      <c r="G10" s="30">
-        <v>1</v>
-      </c>
-      <c r="H10" s="41">
-        <v>1</v>
-      </c>
-      <c r="I10" s="32">
+      <c r="C10" s="83"/>
+      <c r="D10" s="84">
+        <v>10</v>
+      </c>
+      <c r="E10" s="84">
+        <v>10</v>
+      </c>
+      <c r="F10" s="85">
+        <v>10</v>
+      </c>
+      <c r="G10" s="75">
+        <v>1</v>
+      </c>
+      <c r="H10" s="86">
+        <v>1</v>
+      </c>
+      <c r="I10" s="77">
         <v>0</v>
       </c>
-      <c r="J10" s="33">
-        <v>1</v>
-      </c>
-      <c r="K10" s="21">
-        <v>1</v>
-      </c>
-      <c r="L10" s="21">
-        <v>1</v>
-      </c>
-      <c r="M10" s="34">
-        <v>1</v>
-      </c>
-      <c r="N10" s="30">
-        <v>10</v>
-      </c>
-      <c r="O10" s="23">
+      <c r="J10" s="78">
+        <v>1</v>
+      </c>
+      <c r="K10" s="66">
+        <v>1</v>
+      </c>
+      <c r="L10" s="66">
+        <v>1</v>
+      </c>
+      <c r="M10" s="79">
+        <v>1</v>
+      </c>
+      <c r="N10" s="75">
+        <v>10</v>
+      </c>
+      <c r="O10" s="68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P10" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="23">
+      <c r="P10" s="64">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="68">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="R10" s="30">
-        <v>10</v>
-      </c>
-      <c r="S10" s="23">
+      <c r="R10" s="75">
+        <v>10</v>
+      </c>
+      <c r="S10" s="68">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="T10" s="35">
-        <v>10</v>
-      </c>
-      <c r="U10" s="23">
+      <c r="T10" s="80">
+        <v>10</v>
+      </c>
+      <c r="U10" s="68">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="V10" s="25">
+      <c r="V10" s="70">
         <f t="shared" ref="V10:V27" si="5">SUM(Q10,S10,U10,O10)</f>
         <v>10</v>
       </c>
-      <c r="W10" s="26">
+      <c r="W10" s="71">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="59">
         <v>4</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44">
-        <v>10</v>
-      </c>
-      <c r="E11" s="44">
-        <v>10</v>
-      </c>
-      <c r="F11" s="45">
-        <v>10</v>
-      </c>
-      <c r="G11" s="30">
-        <v>1</v>
-      </c>
-      <c r="H11" s="41">
-        <v>1</v>
-      </c>
-      <c r="I11" s="33">
-        <v>1</v>
-      </c>
-      <c r="J11" s="33">
-        <v>1</v>
-      </c>
-      <c r="K11" s="21">
-        <v>1</v>
-      </c>
-      <c r="L11" s="21">
-        <v>1</v>
-      </c>
-      <c r="M11" s="34">
+      <c r="C11" s="88"/>
+      <c r="D11" s="89">
+        <v>10</v>
+      </c>
+      <c r="E11" s="89">
+        <v>10</v>
+      </c>
+      <c r="F11" s="90">
+        <v>10</v>
+      </c>
+      <c r="G11" s="75">
+        <v>1</v>
+      </c>
+      <c r="H11" s="86">
+        <v>1</v>
+      </c>
+      <c r="I11" s="78">
+        <v>1</v>
+      </c>
+      <c r="J11" s="78">
+        <v>1</v>
+      </c>
+      <c r="K11" s="66">
+        <v>1</v>
+      </c>
+      <c r="L11" s="66">
+        <v>1</v>
+      </c>
+      <c r="M11" s="79">
         <v>0</v>
       </c>
-      <c r="N11" s="30">
-        <v>10</v>
-      </c>
-      <c r="O11" s="23">
+      <c r="N11" s="75">
+        <v>10</v>
+      </c>
+      <c r="O11" s="68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P11" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="23">
+      <c r="P11" s="64">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="68">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="R11" s="30">
+      <c r="R11" s="75">
         <v>9</v>
       </c>
-      <c r="S11" s="23">
+      <c r="S11" s="68">
         <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
-      <c r="T11" s="35">
+      <c r="T11" s="80">
         <v>9.5</v>
       </c>
-      <c r="U11" s="23">
+      <c r="U11" s="68">
         <f t="shared" si="3"/>
         <v>4.75</v>
       </c>
-      <c r="V11" s="25">
-        <f t="shared" si="5"/>
-        <v>9.5</v>
-      </c>
-      <c r="W11" s="26">
+      <c r="V11" s="81">
+        <v>10</v>
+      </c>
+      <c r="W11" s="71">
         <f t="shared" si="4"/>
-        <v>9.875</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
+      <c r="A12" s="72">
         <v>5</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="39">
-        <v>10</v>
-      </c>
-      <c r="E12" s="39">
+      <c r="C12" s="91"/>
+      <c r="D12" s="84">
+        <v>10</v>
+      </c>
+      <c r="E12" s="84">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F12" s="40">
-        <v>10</v>
-      </c>
-      <c r="G12" s="47">
-        <v>1</v>
-      </c>
-      <c r="H12" s="41">
-        <v>1</v>
-      </c>
-      <c r="I12" s="33">
-        <v>1</v>
-      </c>
-      <c r="J12" s="33">
-        <v>1</v>
-      </c>
-      <c r="K12" s="21">
-        <v>1</v>
-      </c>
-      <c r="L12" s="21">
-        <v>1</v>
-      </c>
-      <c r="M12" s="34">
+      <c r="F12" s="85">
+        <v>10</v>
+      </c>
+      <c r="G12" s="92">
+        <v>1</v>
+      </c>
+      <c r="H12" s="86">
+        <v>1</v>
+      </c>
+      <c r="I12" s="78">
+        <v>1</v>
+      </c>
+      <c r="J12" s="78">
+        <v>1</v>
+      </c>
+      <c r="K12" s="66">
+        <v>1</v>
+      </c>
+      <c r="L12" s="66">
+        <v>1</v>
+      </c>
+      <c r="M12" s="79">
         <v>0</v>
       </c>
-      <c r="N12" s="30">
+      <c r="N12" s="75">
         <v>9</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="68">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="P12" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="23">
+      <c r="P12" s="64">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="68">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="R12" s="30">
-        <v>10</v>
-      </c>
-      <c r="S12" s="23">
+      <c r="R12" s="75">
+        <v>10</v>
+      </c>
+      <c r="S12" s="68">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="T12" s="35">
+      <c r="T12" s="80">
         <v>9</v>
       </c>
-      <c r="U12" s="23">
+      <c r="U12" s="68">
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-      <c r="V12" s="25">
+      <c r="V12" s="70">
         <f t="shared" si="5"/>
         <v>9.4</v>
       </c>
-      <c r="W12" s="26">
+      <c r="W12" s="71">
         <f t="shared" si="4"/>
         <v>9.7750000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
+      <c r="A13" s="72">
         <v>6</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="39">
-        <v>10</v>
-      </c>
-      <c r="E13" s="39">
-        <v>10</v>
-      </c>
-      <c r="F13" s="50">
-        <v>10</v>
-      </c>
-      <c r="G13" s="30">
-        <v>1</v>
-      </c>
-      <c r="H13" s="41">
-        <v>1</v>
-      </c>
-      <c r="I13" s="33">
-        <v>1</v>
-      </c>
-      <c r="J13" s="33">
-        <v>1</v>
-      </c>
-      <c r="K13" s="21">
-        <v>1</v>
-      </c>
-      <c r="L13" s="21">
-        <v>1</v>
-      </c>
-      <c r="M13" s="34">
+      <c r="C13" s="94"/>
+      <c r="D13" s="84">
+        <v>10</v>
+      </c>
+      <c r="E13" s="84">
+        <v>10</v>
+      </c>
+      <c r="F13" s="95">
+        <v>10</v>
+      </c>
+      <c r="G13" s="75">
+        <v>1</v>
+      </c>
+      <c r="H13" s="86">
+        <v>1</v>
+      </c>
+      <c r="I13" s="78">
+        <v>1</v>
+      </c>
+      <c r="J13" s="78">
+        <v>1</v>
+      </c>
+      <c r="K13" s="66">
+        <v>1</v>
+      </c>
+      <c r="L13" s="66">
+        <v>1</v>
+      </c>
+      <c r="M13" s="79">
         <v>0</v>
       </c>
-      <c r="N13" s="30">
-        <v>10</v>
-      </c>
-      <c r="O13" s="23">
+      <c r="N13" s="75">
+        <v>10</v>
+      </c>
+      <c r="O13" s="68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P13" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="23">
+      <c r="P13" s="64">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="68">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="R13" s="30">
+      <c r="R13" s="75">
         <v>9</v>
       </c>
-      <c r="S13" s="23">
+      <c r="S13" s="68">
         <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
-      <c r="T13" s="51">
-        <v>10</v>
-      </c>
-      <c r="U13" s="23">
+      <c r="T13" s="96">
+        <v>10</v>
+      </c>
+      <c r="U13" s="68">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="V13" s="25">
+      <c r="V13" s="70">
         <f t="shared" si="5"/>
         <v>9.75</v>
       </c>
-      <c r="W13" s="26">
+      <c r="W13" s="71">
         <f t="shared" si="4"/>
         <v>9.9375</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="59">
         <v>7</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54">
+      <c r="C14" s="98"/>
+      <c r="D14" s="99">
         <v>9</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="99">
         <v>9.1</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="100">
         <v>8.6</v>
       </c>
-      <c r="G14" s="30">
-        <v>1</v>
-      </c>
-      <c r="H14" s="41">
-        <v>1</v>
-      </c>
-      <c r="I14" s="33">
-        <v>1</v>
-      </c>
-      <c r="J14" s="33">
-        <v>1</v>
-      </c>
-      <c r="K14" s="21">
-        <v>1</v>
-      </c>
-      <c r="L14" s="21">
-        <v>1</v>
-      </c>
-      <c r="M14" s="34">
+      <c r="G14" s="75">
+        <v>1</v>
+      </c>
+      <c r="H14" s="86">
+        <v>1</v>
+      </c>
+      <c r="I14" s="78">
+        <v>1</v>
+      </c>
+      <c r="J14" s="78">
+        <v>1</v>
+      </c>
+      <c r="K14" s="66">
+        <v>1</v>
+      </c>
+      <c r="L14" s="66">
+        <v>1</v>
+      </c>
+      <c r="M14" s="79">
         <v>0</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="75">
         <v>8</v>
       </c>
-      <c r="O14" s="23">
+      <c r="O14" s="68">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="P14" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="23">
+      <c r="P14" s="64">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="68">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="R14" s="56">
-        <v>10</v>
-      </c>
-      <c r="S14" s="23">
+      <c r="R14" s="101">
+        <v>10</v>
+      </c>
+      <c r="S14" s="68">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="T14" s="35">
+      <c r="T14" s="80">
         <v>9</v>
       </c>
-      <c r="U14" s="23">
+      <c r="U14" s="68">
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-      <c r="V14" s="25">
+      <c r="V14" s="70">
         <f t="shared" si="5"/>
         <v>9.3000000000000007</v>
       </c>
-      <c r="W14" s="26">
+      <c r="W14" s="71">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="X14" s="57"/>
+      <c r="X14" s="102"/>
     </row>
     <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27">
+      <c r="A15" s="72">
         <v>8</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="39">
-        <v>10</v>
-      </c>
-      <c r="E15" s="39">
-        <v>10</v>
-      </c>
-      <c r="F15" s="40">
+      <c r="C15" s="83"/>
+      <c r="D15" s="84">
+        <v>10</v>
+      </c>
+      <c r="E15" s="84">
+        <v>10</v>
+      </c>
+      <c r="F15" s="85">
         <v>9.6</v>
       </c>
-      <c r="G15" s="30">
-        <v>1</v>
-      </c>
-      <c r="H15" s="41">
-        <v>1</v>
-      </c>
-      <c r="I15" s="33">
-        <v>1</v>
-      </c>
-      <c r="J15" s="33">
-        <v>1</v>
-      </c>
-      <c r="K15" s="21">
-        <v>1</v>
-      </c>
-      <c r="L15" s="21">
-        <v>1</v>
-      </c>
-      <c r="M15" s="34">
+      <c r="G15" s="75">
+        <v>1</v>
+      </c>
+      <c r="H15" s="86">
+        <v>1</v>
+      </c>
+      <c r="I15" s="78">
+        <v>1</v>
+      </c>
+      <c r="J15" s="78">
+        <v>1</v>
+      </c>
+      <c r="K15" s="66">
+        <v>1</v>
+      </c>
+      <c r="L15" s="66">
+        <v>1</v>
+      </c>
+      <c r="M15" s="79">
         <v>0</v>
       </c>
-      <c r="N15" s="30">
-        <v>10</v>
-      </c>
-      <c r="O15" s="23">
+      <c r="N15" s="75">
+        <v>10</v>
+      </c>
+      <c r="O15" s="68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P15" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="23">
+      <c r="P15" s="64">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="68">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="R15" s="30">
+      <c r="R15" s="75">
         <v>9.5</v>
       </c>
-      <c r="S15" s="23">
+      <c r="S15" s="68">
         <f t="shared" si="2"/>
         <v>2.375</v>
       </c>
-      <c r="T15" s="35">
+      <c r="T15" s="80">
         <v>9</v>
       </c>
-      <c r="U15" s="23">
+      <c r="U15" s="68">
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-      <c r="V15" s="25">
-        <f t="shared" si="5"/>
-        <v>9.375</v>
-      </c>
-      <c r="W15" s="26">
+      <c r="V15" s="81">
+        <v>10</v>
+      </c>
+      <c r="W15" s="71">
         <f t="shared" si="4"/>
-        <v>9.7437500000000004</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
+      <c r="A16" s="72">
         <v>9</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="39">
-        <v>10</v>
-      </c>
-      <c r="E16" s="39">
+      <c r="C16" s="91"/>
+      <c r="D16" s="84">
+        <v>10</v>
+      </c>
+      <c r="E16" s="84">
         <v>9.5</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="85">
         <v>9</v>
       </c>
-      <c r="G16" s="30">
-        <v>1</v>
-      </c>
-      <c r="H16" s="41">
-        <v>1</v>
-      </c>
-      <c r="I16" s="33">
-        <v>1</v>
-      </c>
-      <c r="J16" s="33">
-        <v>1</v>
-      </c>
-      <c r="K16" s="21">
-        <v>1</v>
-      </c>
-      <c r="L16" s="21">
-        <v>1</v>
-      </c>
-      <c r="M16" s="34">
+      <c r="G16" s="75">
+        <v>1</v>
+      </c>
+      <c r="H16" s="86">
+        <v>1</v>
+      </c>
+      <c r="I16" s="78">
+        <v>1</v>
+      </c>
+      <c r="J16" s="78">
+        <v>1</v>
+      </c>
+      <c r="K16" s="66">
+        <v>1</v>
+      </c>
+      <c r="L16" s="66">
+        <v>1</v>
+      </c>
+      <c r="M16" s="79">
         <v>0</v>
       </c>
-      <c r="N16" s="30">
+      <c r="N16" s="75">
         <v>9</v>
       </c>
-      <c r="O16" s="23">
+      <c r="O16" s="68">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="P16" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="23">
+      <c r="P16" s="64">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="68">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="R16" s="56">
-        <v>10</v>
-      </c>
-      <c r="S16" s="23">
+      <c r="R16" s="101">
+        <v>10</v>
+      </c>
+      <c r="S16" s="68">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="T16" s="35">
-        <v>10</v>
-      </c>
-      <c r="U16" s="23">
+      <c r="T16" s="104">
+        <v>10</v>
+      </c>
+      <c r="U16" s="68">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="V16" s="60">
-        <v>9.5</v>
-      </c>
-      <c r="W16" s="26">
+      <c r="V16" s="105">
+        <f t="shared" si="5"/>
+        <v>9.9</v>
+      </c>
+      <c r="W16" s="71">
         <f t="shared" si="4"/>
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
-        <v>10</v>
-      </c>
-      <c r="B17" s="61" t="s">
+      <c r="A17" s="59">
+        <v>10</v>
+      </c>
+      <c r="B17" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="29">
+      <c r="C17" s="107"/>
+      <c r="D17" s="74">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="74">
         <v>9.1</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="63">
         <v>8.9</v>
       </c>
-      <c r="G17" s="30">
-        <v>1</v>
-      </c>
-      <c r="H17" s="41">
-        <v>1</v>
-      </c>
-      <c r="I17" s="62">
-        <v>1</v>
-      </c>
-      <c r="J17" s="33">
-        <v>1</v>
-      </c>
-      <c r="K17" s="21">
-        <v>1</v>
-      </c>
-      <c r="L17" s="21">
-        <v>1</v>
-      </c>
-      <c r="M17" s="34">
+      <c r="G17" s="75">
+        <v>1</v>
+      </c>
+      <c r="H17" s="86">
+        <v>1</v>
+      </c>
+      <c r="I17" s="108">
+        <v>1</v>
+      </c>
+      <c r="J17" s="78">
+        <v>1</v>
+      </c>
+      <c r="K17" s="66">
+        <v>1</v>
+      </c>
+      <c r="L17" s="66">
+        <v>1</v>
+      </c>
+      <c r="M17" s="79">
         <v>0</v>
       </c>
-      <c r="N17" s="30">
-        <v>10</v>
-      </c>
-      <c r="O17" s="23">
+      <c r="N17" s="75">
+        <v>10</v>
+      </c>
+      <c r="O17" s="68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P17" s="19">
+      <c r="P17" s="64">
         <v>8.5</v>
       </c>
-      <c r="Q17" s="23">
+      <c r="Q17" s="68">
         <f t="shared" si="1"/>
         <v>1.2749999999999999</v>
       </c>
-      <c r="R17" s="30">
+      <c r="R17" s="75">
         <v>9</v>
       </c>
-      <c r="S17" s="23">
+      <c r="S17" s="68">
         <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
-      <c r="T17" s="35">
+      <c r="T17" s="80">
         <v>9.5</v>
       </c>
-      <c r="U17" s="23">
+      <c r="U17" s="68">
         <f t="shared" si="3"/>
         <v>4.75</v>
       </c>
-      <c r="V17" s="63">
+      <c r="V17" s="109">
         <f t="shared" si="5"/>
         <v>9.2750000000000004</v>
       </c>
-      <c r="W17" s="26">
+      <c r="W17" s="71">
         <f t="shared" si="4"/>
         <v>9.0187499999999989</v>
       </c>
-      <c r="X17" s="57"/>
+      <c r="X17" s="102"/>
     </row>
     <row r="18" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
+      <c r="A18" s="72">
         <v>11</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="39">
-        <v>10</v>
-      </c>
-      <c r="E18" s="39">
-        <v>10</v>
-      </c>
-      <c r="F18" s="40">
-        <v>10</v>
-      </c>
-      <c r="G18" s="30">
-        <v>1</v>
-      </c>
-      <c r="H18" s="41">
-        <v>1</v>
-      </c>
-      <c r="I18" s="33">
-        <v>1</v>
-      </c>
-      <c r="J18" s="33">
-        <v>1</v>
-      </c>
-      <c r="K18" s="21">
-        <v>1</v>
-      </c>
-      <c r="L18" s="21">
-        <v>1</v>
-      </c>
-      <c r="M18" s="34">
+      <c r="C18" s="110"/>
+      <c r="D18" s="84">
+        <v>10</v>
+      </c>
+      <c r="E18" s="84">
+        <v>10</v>
+      </c>
+      <c r="F18" s="85">
+        <v>10</v>
+      </c>
+      <c r="G18" s="75">
+        <v>1</v>
+      </c>
+      <c r="H18" s="86">
+        <v>1</v>
+      </c>
+      <c r="I18" s="78">
+        <v>1</v>
+      </c>
+      <c r="J18" s="78">
+        <v>1</v>
+      </c>
+      <c r="K18" s="66">
+        <v>1</v>
+      </c>
+      <c r="L18" s="66">
+        <v>1</v>
+      </c>
+      <c r="M18" s="79">
         <v>0</v>
       </c>
-      <c r="N18" s="30">
-        <v>10</v>
-      </c>
-      <c r="O18" s="23">
+      <c r="N18" s="75">
+        <v>10</v>
+      </c>
+      <c r="O18" s="68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P18" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="23">
+      <c r="P18" s="64">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="68">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="R18" s="30">
-        <v>10</v>
-      </c>
-      <c r="S18" s="23">
+      <c r="R18" s="75">
+        <v>10</v>
+      </c>
+      <c r="S18" s="68">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="T18" s="35">
-        <v>10</v>
-      </c>
-      <c r="U18" s="23">
+      <c r="T18" s="80">
+        <v>10</v>
+      </c>
+      <c r="U18" s="68">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="V18" s="25">
+      <c r="V18" s="70">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="W18" s="26">
+      <c r="W18" s="71">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27">
+      <c r="A19" s="72">
         <v>12</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="39">
+      <c r="C19" s="91"/>
+      <c r="D19" s="84">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="84">
         <v>9.1</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="85">
         <v>9.1</v>
       </c>
-      <c r="G19" s="30">
-        <v>1</v>
-      </c>
-      <c r="H19" s="41">
-        <v>1</v>
-      </c>
-      <c r="I19" s="33">
-        <v>1</v>
-      </c>
-      <c r="J19" s="32">
+      <c r="G19" s="75">
+        <v>1</v>
+      </c>
+      <c r="H19" s="86">
+        <v>1</v>
+      </c>
+      <c r="I19" s="78">
+        <v>1</v>
+      </c>
+      <c r="J19" s="77">
         <v>0</v>
       </c>
-      <c r="K19" s="21">
-        <v>1</v>
-      </c>
-      <c r="L19" s="21">
-        <v>1</v>
-      </c>
-      <c r="M19" s="34">
-        <v>1</v>
-      </c>
-      <c r="N19" s="30">
-        <v>10</v>
-      </c>
-      <c r="O19" s="23">
+      <c r="K19" s="66">
+        <v>1</v>
+      </c>
+      <c r="L19" s="66">
+        <v>1</v>
+      </c>
+      <c r="M19" s="79">
+        <v>1</v>
+      </c>
+      <c r="N19" s="75">
+        <v>10</v>
+      </c>
+      <c r="O19" s="68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P19" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q19" s="23">
+      <c r="P19" s="64">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="68">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="R19" s="30">
-        <v>10</v>
-      </c>
-      <c r="S19" s="23">
+      <c r="R19" s="75">
+        <v>10</v>
+      </c>
+      <c r="S19" s="68">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="T19" s="35">
-        <v>10</v>
-      </c>
-      <c r="U19" s="23">
+      <c r="T19" s="80">
+        <v>10</v>
+      </c>
+      <c r="U19" s="68">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="V19" s="25">
+      <c r="V19" s="70">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="W19" s="26">
+      <c r="W19" s="71">
         <f t="shared" si="4"/>
         <v>9.375</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+      <c r="A20" s="59">
         <v>13</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="29">
-        <v>10</v>
-      </c>
-      <c r="E20" s="29">
+      <c r="C20" s="111"/>
+      <c r="D20" s="74">
+        <v>10</v>
+      </c>
+      <c r="E20" s="74">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F20" s="18">
-        <v>10</v>
-      </c>
-      <c r="G20" s="30">
-        <v>1</v>
-      </c>
-      <c r="H20" s="41">
-        <v>1</v>
-      </c>
-      <c r="I20" s="32">
+      <c r="F20" s="63">
+        <v>10</v>
+      </c>
+      <c r="G20" s="75">
+        <v>1</v>
+      </c>
+      <c r="H20" s="86">
+        <v>1</v>
+      </c>
+      <c r="I20" s="77">
         <v>0</v>
       </c>
-      <c r="J20" s="33">
-        <v>1</v>
-      </c>
-      <c r="K20" s="21">
-        <v>1</v>
-      </c>
-      <c r="L20" s="21">
-        <v>1</v>
-      </c>
-      <c r="M20" s="34">
-        <v>1</v>
-      </c>
-      <c r="N20" s="30">
+      <c r="J20" s="78">
+        <v>1</v>
+      </c>
+      <c r="K20" s="66">
+        <v>1</v>
+      </c>
+      <c r="L20" s="66">
+        <v>1</v>
+      </c>
+      <c r="M20" s="79">
+        <v>1</v>
+      </c>
+      <c r="N20" s="75">
         <v>9</v>
       </c>
-      <c r="O20" s="23">
+      <c r="O20" s="68">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="P20" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q20" s="23">
+      <c r="P20" s="64">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="68">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="R20" s="30">
+      <c r="R20" s="75">
         <v>9</v>
       </c>
-      <c r="S20" s="23">
+      <c r="S20" s="68">
         <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
-      <c r="T20" s="51">
+      <c r="T20" s="96">
         <v>9</v>
       </c>
-      <c r="U20" s="23">
+      <c r="U20" s="68">
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-      <c r="V20" s="25">
+      <c r="V20" s="70">
         <f t="shared" si="5"/>
         <v>9.15</v>
       </c>
-      <c r="W20" s="26">
+      <c r="W20" s="71">
         <f t="shared" si="4"/>
         <v>9.7375000000000007</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27">
+      <c r="A21" s="72">
         <v>14</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="29">
-        <v>10</v>
-      </c>
-      <c r="E21" s="29">
+      <c r="C21" s="111"/>
+      <c r="D21" s="74">
+        <v>10</v>
+      </c>
+      <c r="E21" s="74">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="63">
         <v>9.6999999999999993</v>
       </c>
-      <c r="G21" s="30">
-        <v>1</v>
-      </c>
-      <c r="H21" s="41">
-        <v>1</v>
-      </c>
-      <c r="I21" s="33">
-        <v>1</v>
-      </c>
-      <c r="J21" s="33">
-        <v>1</v>
-      </c>
-      <c r="K21" s="65">
+      <c r="G21" s="75">
+        <v>1</v>
+      </c>
+      <c r="H21" s="86">
+        <v>1</v>
+      </c>
+      <c r="I21" s="78">
+        <v>1</v>
+      </c>
+      <c r="J21" s="78">
+        <v>1</v>
+      </c>
+      <c r="K21" s="112">
         <v>0</v>
       </c>
-      <c r="L21" s="21">
-        <v>1</v>
-      </c>
-      <c r="M21" s="34">
-        <v>1</v>
-      </c>
-      <c r="N21" s="30">
+      <c r="L21" s="66">
+        <v>1</v>
+      </c>
+      <c r="M21" s="79">
+        <v>1</v>
+      </c>
+      <c r="N21" s="75">
         <v>9</v>
       </c>
-      <c r="O21" s="23">
+      <c r="O21" s="68">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="P21" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q21" s="23">
+      <c r="P21" s="64">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="68">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="R21" s="30">
-        <v>10</v>
-      </c>
-      <c r="S21" s="23">
+      <c r="R21" s="75">
+        <v>10</v>
+      </c>
+      <c r="S21" s="68">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="T21" s="35">
+      <c r="T21" s="80">
         <v>9</v>
       </c>
-      <c r="U21" s="23">
+      <c r="U21" s="68">
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-      <c r="V21" s="25">
+      <c r="V21" s="70">
         <f t="shared" si="5"/>
         <v>9.4</v>
       </c>
-      <c r="W21" s="26">
+      <c r="W21" s="71">
         <f t="shared" si="4"/>
         <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
+      <c r="A22" s="72">
         <v>15</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="39">
+      <c r="C22" s="91"/>
+      <c r="D22" s="84">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="84">
         <v>9.1</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="85">
         <v>8.5</v>
       </c>
-      <c r="G22" s="30">
-        <v>1</v>
-      </c>
-      <c r="H22" s="41">
-        <v>1</v>
-      </c>
-      <c r="I22" s="33">
-        <v>1</v>
-      </c>
-      <c r="J22" s="33">
-        <v>1</v>
-      </c>
-      <c r="K22" s="66">
-        <v>1</v>
-      </c>
-      <c r="L22" s="21">
-        <v>1</v>
-      </c>
-      <c r="M22" s="34">
+      <c r="G22" s="75">
+        <v>1</v>
+      </c>
+      <c r="H22" s="86">
+        <v>1</v>
+      </c>
+      <c r="I22" s="78">
+        <v>1</v>
+      </c>
+      <c r="J22" s="78">
+        <v>1</v>
+      </c>
+      <c r="K22" s="113">
+        <v>1</v>
+      </c>
+      <c r="L22" s="66">
+        <v>1</v>
+      </c>
+      <c r="M22" s="79">
         <v>0</v>
       </c>
-      <c r="N22" s="30">
+      <c r="N22" s="75">
         <v>8</v>
       </c>
-      <c r="O22" s="23">
+      <c r="O22" s="68">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="P22" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="23">
+      <c r="P22" s="64">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="68">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="R22" s="30">
+      <c r="R22" s="75">
         <v>9</v>
       </c>
-      <c r="S22" s="23">
+      <c r="S22" s="68">
         <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
-      <c r="T22" s="35">
+      <c r="T22" s="80">
         <v>8</v>
       </c>
-      <c r="U22" s="23">
+      <c r="U22" s="68">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="V22" s="25">
+      <c r="V22" s="70">
         <f t="shared" si="5"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="W22" s="67">
+      <c r="W22" s="114">
         <f t="shared" si="4"/>
         <v>8.6125000000000007</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+      <c r="A23" s="59">
         <v>16</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39">
+      <c r="C23" s="83"/>
+      <c r="D23" s="84">
         <v>9.6</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="84">
         <v>9.1</v>
       </c>
-      <c r="F23" s="40">
-        <v>10</v>
-      </c>
-      <c r="G23" s="30">
-        <v>1</v>
-      </c>
-      <c r="H23" s="41">
-        <v>1</v>
-      </c>
-      <c r="I23" s="33">
-        <v>1</v>
-      </c>
-      <c r="J23" s="33">
-        <v>1</v>
-      </c>
-      <c r="K23" s="66">
-        <v>1</v>
-      </c>
-      <c r="L23" s="21">
-        <v>1</v>
-      </c>
-      <c r="M23" s="34">
+      <c r="F23" s="85">
+        <v>10</v>
+      </c>
+      <c r="G23" s="75">
+        <v>1</v>
+      </c>
+      <c r="H23" s="86">
+        <v>1</v>
+      </c>
+      <c r="I23" s="78">
+        <v>1</v>
+      </c>
+      <c r="J23" s="78">
+        <v>1</v>
+      </c>
+      <c r="K23" s="113">
+        <v>1</v>
+      </c>
+      <c r="L23" s="66">
+        <v>1</v>
+      </c>
+      <c r="M23" s="79">
         <v>0</v>
       </c>
-      <c r="N23" s="30">
+      <c r="N23" s="75">
         <v>9</v>
       </c>
-      <c r="O23" s="23">
+      <c r="O23" s="68">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="P23" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q23" s="23">
+      <c r="P23" s="64">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="68">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="R23" s="30">
-        <v>10</v>
-      </c>
-      <c r="S23" s="23">
+      <c r="R23" s="75">
+        <v>10</v>
+      </c>
+      <c r="S23" s="68">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="T23" s="35">
+      <c r="T23" s="80">
         <v>8</v>
       </c>
-      <c r="U23" s="23">
+      <c r="U23" s="68">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="V23" s="36">
+      <c r="V23" s="81">
         <v>9.4</v>
       </c>
-      <c r="W23" s="26">
+      <c r="W23" s="71">
         <f t="shared" si="4"/>
         <v>9.5250000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27">
+      <c r="A24" s="72">
         <v>17</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="29">
+      <c r="C24" s="115"/>
+      <c r="D24" s="74">
         <v>9.6</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="74">
         <v>9</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="63">
         <v>9.1</v>
       </c>
-      <c r="G24" s="30">
-        <v>1</v>
-      </c>
-      <c r="H24" s="41">
-        <v>1</v>
-      </c>
-      <c r="I24" s="33">
-        <v>1</v>
-      </c>
-      <c r="J24" s="33">
-        <v>1</v>
-      </c>
-      <c r="K24" s="66">
-        <v>1</v>
-      </c>
-      <c r="L24" s="21">
-        <v>1</v>
-      </c>
-      <c r="M24" s="34">
+      <c r="G24" s="75">
+        <v>1</v>
+      </c>
+      <c r="H24" s="86">
+        <v>1</v>
+      </c>
+      <c r="I24" s="78">
+        <v>1</v>
+      </c>
+      <c r="J24" s="78">
+        <v>1</v>
+      </c>
+      <c r="K24" s="113">
+        <v>1</v>
+      </c>
+      <c r="L24" s="66">
+        <v>1</v>
+      </c>
+      <c r="M24" s="79">
         <v>0</v>
       </c>
-      <c r="N24" s="30">
-        <v>10</v>
-      </c>
-      <c r="O24" s="23">
+      <c r="N24" s="75">
+        <v>10</v>
+      </c>
+      <c r="O24" s="68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P24" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q24" s="23">
+      <c r="P24" s="64">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="68">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="R24" s="56">
+      <c r="R24" s="101">
         <v>9</v>
       </c>
-      <c r="S24" s="23">
+      <c r="S24" s="68">
         <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
-      <c r="T24" s="35">
-        <v>10</v>
-      </c>
-      <c r="U24" s="23">
+      <c r="T24" s="80">
+        <v>10</v>
+      </c>
+      <c r="U24" s="68">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="V24" s="25">
+      <c r="V24" s="70">
         <f t="shared" si="5"/>
         <v>9.75</v>
       </c>
-      <c r="W24" s="26">
+      <c r="W24" s="71">
         <f t="shared" si="4"/>
         <v>9.3625000000000007</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27">
+      <c r="A25" s="72">
         <v>18</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29">
-        <v>10</v>
-      </c>
-      <c r="E25" s="29">
+      <c r="C25" s="73"/>
+      <c r="D25" s="74">
+        <v>10</v>
+      </c>
+      <c r="E25" s="74">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F25" s="18">
-        <v>10</v>
-      </c>
-      <c r="G25" s="30">
-        <v>1</v>
-      </c>
-      <c r="H25" s="41">
-        <v>1</v>
-      </c>
-      <c r="I25" s="33">
-        <v>1</v>
-      </c>
-      <c r="J25" s="33">
-        <v>1</v>
-      </c>
-      <c r="K25" s="66">
-        <v>1</v>
-      </c>
-      <c r="L25" s="21">
-        <v>1</v>
-      </c>
-      <c r="M25" s="34">
+      <c r="F25" s="63">
+        <v>10</v>
+      </c>
+      <c r="G25" s="75">
+        <v>1</v>
+      </c>
+      <c r="H25" s="86">
+        <v>1</v>
+      </c>
+      <c r="I25" s="78">
+        <v>1</v>
+      </c>
+      <c r="J25" s="78">
+        <v>1</v>
+      </c>
+      <c r="K25" s="113">
+        <v>1</v>
+      </c>
+      <c r="L25" s="66">
+        <v>1</v>
+      </c>
+      <c r="M25" s="79">
         <v>0</v>
       </c>
-      <c r="N25" s="30">
-        <v>10</v>
-      </c>
-      <c r="O25" s="23">
+      <c r="N25" s="75">
+        <v>10</v>
+      </c>
+      <c r="O25" s="68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P25" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q25" s="23">
+      <c r="P25" s="64">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="68">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="R25" s="30">
-        <v>10</v>
-      </c>
-      <c r="S25" s="23">
+      <c r="R25" s="75">
+        <v>10</v>
+      </c>
+      <c r="S25" s="68">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="T25" s="35">
-        <v>10</v>
-      </c>
-      <c r="U25" s="23">
+      <c r="T25" s="80">
+        <v>10</v>
+      </c>
+      <c r="U25" s="68">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="V25" s="25">
+      <c r="V25" s="70">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="W25" s="26">
+      <c r="W25" s="71">
         <f t="shared" si="4"/>
         <v>9.9499999999999993</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
+      <c r="A26" s="59">
         <v>19</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39">
+      <c r="C26" s="83"/>
+      <c r="D26" s="84">
         <v>9.6</v>
       </c>
-      <c r="E26" s="39">
-        <v>10</v>
-      </c>
-      <c r="F26" s="40">
-        <v>10</v>
-      </c>
-      <c r="G26" s="30">
-        <v>1</v>
-      </c>
-      <c r="H26" s="31">
-        <v>1</v>
-      </c>
-      <c r="I26" s="32">
+      <c r="E26" s="84">
+        <v>10</v>
+      </c>
+      <c r="F26" s="85">
+        <v>10</v>
+      </c>
+      <c r="G26" s="75">
+        <v>1</v>
+      </c>
+      <c r="H26" s="76">
+        <v>1</v>
+      </c>
+      <c r="I26" s="77">
         <v>0</v>
       </c>
-      <c r="J26" s="33">
-        <v>1</v>
-      </c>
-      <c r="K26" s="66">
-        <v>1</v>
-      </c>
-      <c r="L26" s="21">
-        <v>1</v>
-      </c>
-      <c r="M26" s="34">
-        <v>1</v>
-      </c>
-      <c r="N26" s="30">
+      <c r="J26" s="78">
+        <v>1</v>
+      </c>
+      <c r="K26" s="113">
+        <v>1</v>
+      </c>
+      <c r="L26" s="66">
+        <v>1</v>
+      </c>
+      <c r="M26" s="79">
+        <v>1</v>
+      </c>
+      <c r="N26" s="75">
         <v>9</v>
       </c>
-      <c r="O26" s="23">
+      <c r="O26" s="68">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="P26" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q26" s="23">
+      <c r="P26" s="64">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="68">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="R26" s="30">
-        <v>10</v>
-      </c>
-      <c r="S26" s="23">
+      <c r="R26" s="75">
+        <v>10</v>
+      </c>
+      <c r="S26" s="68">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="T26" s="35">
+      <c r="T26" s="80">
         <v>9</v>
       </c>
-      <c r="U26" s="23">
+      <c r="U26" s="68">
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-      <c r="V26" s="36">
-        <v>10</v>
-      </c>
-      <c r="W26" s="26">
+      <c r="V26" s="81">
+        <v>10</v>
+      </c>
+      <c r="W26" s="71">
         <f t="shared" si="4"/>
         <v>9.9</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27">
+      <c r="A27" s="72">
         <v>20</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="54">
+      <c r="C27" s="117"/>
+      <c r="D27" s="99">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E27" s="54">
+      <c r="E27" s="99">
         <v>9.6</v>
       </c>
-      <c r="F27" s="55">
+      <c r="F27" s="100">
         <v>9.4</v>
       </c>
-      <c r="G27" s="30">
-        <v>1</v>
-      </c>
-      <c r="H27" s="41">
-        <v>1</v>
-      </c>
-      <c r="I27" s="33">
-        <v>1</v>
-      </c>
-      <c r="J27" s="33">
-        <v>1</v>
-      </c>
-      <c r="K27" s="66">
-        <v>1</v>
-      </c>
-      <c r="L27" s="21">
-        <v>1</v>
-      </c>
-      <c r="M27" s="34">
+      <c r="G27" s="75">
+        <v>1</v>
+      </c>
+      <c r="H27" s="86">
+        <v>1</v>
+      </c>
+      <c r="I27" s="78">
+        <v>1</v>
+      </c>
+      <c r="J27" s="78">
+        <v>1</v>
+      </c>
+      <c r="K27" s="113">
+        <v>1</v>
+      </c>
+      <c r="L27" s="66">
+        <v>1</v>
+      </c>
+      <c r="M27" s="79">
         <v>0</v>
       </c>
-      <c r="N27" s="30">
+      <c r="N27" s="75">
         <v>8</v>
       </c>
-      <c r="O27" s="23">
+      <c r="O27" s="68">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="P27" s="30">
-        <v>10</v>
-      </c>
-      <c r="Q27" s="23">
+      <c r="P27" s="75">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="68">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="R27" s="30">
-        <v>10</v>
-      </c>
-      <c r="S27" s="23">
+      <c r="R27" s="75">
+        <v>10</v>
+      </c>
+      <c r="S27" s="68">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="T27" s="35">
-        <v>10</v>
-      </c>
-      <c r="U27" s="23">
+      <c r="T27" s="80">
+        <v>10</v>
+      </c>
+      <c r="U27" s="68">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="V27" s="25">
+      <c r="V27" s="70">
         <f t="shared" si="5"/>
         <v>9.8000000000000007</v>
       </c>
-      <c r="W27" s="26">
+      <c r="W27" s="71">
         <f t="shared" si="4"/>
         <v>9.5249999999999986</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="73" t="s">
+    <row r="28" spans="1:24" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="74"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="74"/>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="74"/>
-      <c r="S28" s="74"/>
-      <c r="T28" s="74"/>
-      <c r="U28" s="74"/>
-      <c r="V28" s="74"/>
-      <c r="W28" s="75"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="119"/>
+      <c r="K28" s="119"/>
+      <c r="L28" s="119"/>
+      <c r="M28" s="119"/>
+      <c r="N28" s="119"/>
+      <c r="O28" s="119"/>
+      <c r="P28" s="119"/>
+      <c r="Q28" s="119"/>
+      <c r="R28" s="119"/>
+      <c r="S28" s="119"/>
+      <c r="T28" s="119"/>
+      <c r="U28" s="119"/>
+      <c r="V28" s="119"/>
+      <c r="W28" s="120"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="T31" s="72"/>
+      <c r="T31" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B28:W28"/>
+    <mergeCell ref="G6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A1:B5"/>
     <mergeCell ref="D1:F4"/>
     <mergeCell ref="G1:R1"/>
@@ -3383,19 +3383,6 @@
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:V5"/>
     <mergeCell ref="W5:W7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B28:W28"/>
-    <mergeCell ref="G6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
